--- a/第二次新需求整理.xlsx
+++ b/第二次新需求整理.xlsx
@@ -445,10 +445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -572,7 +575,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>